--- a/Data/EC/NIT-9003715734.xlsx
+++ b/Data/EC/NIT-9003715734.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70139213-2A5D-4DF0-AE5F-42A8D8C4B47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{344A2114-ED0F-42FB-BF98-1AFBE6358028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{ABDB0CC6-7E93-4838-B70F-5BD6D6319FDE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{141FA455-4AFA-4B1C-9792-92383001E38E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,46 +80,46 @@
     <t>CRISTIAN DAVID CASTILLA DE ARCO</t>
   </si>
   <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
   </si>
   <si>
     <t>1043647636</t>
@@ -227,7 +227,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -240,9 +242,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -442,23 +442,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,10 +486,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +542,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F193BA7B-5178-B8A1-6290-60874C68DFDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4BB260-F6D7-5670-3F97-93AF9D490180}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63944269-D74C-4250-8D5E-858817C4EE46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{403402A6-4361-42B6-AA30-1D76EDEC21CA}">
   <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1094,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>1333</v>
+        <v>9333</v>
       </c>
       <c r="G17" s="18">
         <v>1000000</v>
@@ -1393,7 +1393,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>9333</v>
+        <v>1333</v>
       </c>
       <c r="G30" s="18">
         <v>1000000</v>
@@ -1419,7 +1419,7 @@
         <v>46400</v>
       </c>
       <c r="G31" s="24">
-        <v>1579402</v>
+        <v>2408244</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
